--- a/All_Node_Information_JSEOL.xlsx
+++ b/All_Node_Information_JSEOL.xlsx
@@ -508,67 +508,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15.182926799999999</t>
+          <t>22.827641025000002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.671593624999996</t>
+          <t>22.676911500000006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.543436024999997</t>
+          <t>23.365864600000002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17.090975225</t>
+          <t>23.92429877499999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.615574425000002</t>
+          <t>22.829727399999996</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13.430700250000005</t>
+          <t>20.206793400000002</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.447072607499999</t>
+          <t>18.96159344999999</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.739132342499996</t>
+          <t>18.605235974999996</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11.594596849999997</t>
+          <t>19.294121549999993</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13.632084125</t>
+          <t>20.713953050000004</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16.764584475</t>
+          <t>23.041742625</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17.251941675000005</t>
+          <t>23.755684549999998</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16.894332350000003</t>
+          <t>23.689986299999997</t>
         </is>
       </c>
     </row>
@@ -580,67 +580,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.09753800769231</t>
+          <t>14.410186846153847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.617762092307691</t>
+          <t>14.097994384615383</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.281429207692309</t>
+          <t>14.085951615384614</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.492225384615385</t>
+          <t>12.65015376923077</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.705542207692307</t>
+          <t>11.817826415384614</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.492680315384614</t>
+          <t>13.430987</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.287507623076923</t>
+          <t>15.19981507692308</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12.02683292307692</t>
+          <t>16.966855153846158</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13.955279538461538</t>
+          <t>18.84644446153846</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14.938381307692307</t>
+          <t>19.619158076923075</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12.560933615384617</t>
+          <t>17.09030123076923</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12.64210323076923</t>
+          <t>17.025794769230764</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.260042076923074</t>
+          <t>16.44211638461538</t>
         </is>
       </c>
     </row>
@@ -652,67 +652,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.842918832258068</t>
+          <t>17.953097854838706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.414218719354837</t>
+          <t>16.769429006451613</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.253553512903226</t>
+          <t>15.909326854838708</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.626103301387097</t>
+          <t>13.578262790322585</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.24857648064516</t>
+          <t>12.150459706451613</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.733354308709679</t>
+          <t>13.464299383870971</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.528473951612904</t>
+          <t>15.246727470967743</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15.50529483548387</t>
+          <t>20.13509232258065</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.633628387096778</t>
+          <t>24.04338425806452</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21.95870751612903</t>
+          <t>26.087621129032257</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19.567381483870967</t>
+          <t>23.644824419354833</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20.74951225806452</t>
+          <t>24.65851558064516</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>19.085990677419353</t>
+          <t>22.903129548387096</t>
         </is>
       </c>
     </row>
@@ -724,67 +724,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-7.873640072681557</t>
+          <t>-7.516715572011165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.127045031033354</t>
+          <t>0.3314776322209506</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-5.0413899351487075</t>
+          <t>-2.9004137202240123</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.542072095586567</t>
+          <t>-5.721705674367038</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-8.91943269312849</t>
+          <t>-5.952336212435753</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-6.961345666536317</t>
+          <t>-3.9892853002636954</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-5.207531604498769</t>
+          <t>-2.2417098825558406</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-4.4123373973838005</t>
+          <t>-1.4343058972167946</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-4.310784768602284</t>
+          <t>-1.3067086664102243</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-5.415185623497212</t>
+          <t>-2.409994976374075</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-8.024094333854752</t>
+          <t>-5.060049972837832</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-8.429265573743033</t>
+          <t>-6.76449584332402</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-8.321131522234646</t>
+          <t>-7.086022312793274</t>
         </is>
       </c>
     </row>
@@ -796,67 +796,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.750221172502403</t>
+          <t>24.75021748108629</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.641952405916612</t>
+          <t>28.61683916197861</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.5996018816683</t>
+          <t>27.629555073714858</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.85693823860329</t>
+          <t>25.927305301648897</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20.724237665858364</t>
+          <t>23.704091967022293</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.432477927497555</t>
+          <t>23.301598337051416</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20.677009764258003</t>
+          <t>23.53166262221143</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30.41621843258966</t>
+          <t>33.19578867458774</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>26.9973195271581</t>
+          <t>29.731999961202728</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22.611873248593575</t>
+          <t>25.33825942580022</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20.09239635465565</t>
+          <t>22.870184125994154</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21.23158791188173</t>
+          <t>24.04285586760421</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>21.68343594194958</t>
+          <t>24.51559357371487</t>
         </is>
       </c>
     </row>
@@ -868,67 +868,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.211242269583849</t>
+          <t>13.39607795453416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.609918570248452</t>
+          <t>14.900934845962738</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.259692688571436</t>
+          <t>15.73431065590062</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.019532244418029</t>
+          <t>15.659751541614916</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.93616849149689</t>
+          <t>16.413956984472062</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17.438645755279502</t>
+          <t>21.589845875776398</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.299261440372668</t>
+          <t>24.34900731677018</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22.51431091925467</t>
+          <t>26.581238776397512</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.596485459627328</t>
+          <t>26.657302472049693</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>17.83738821801242</t>
+          <t>21.971337870186336</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11.40240335802484</t>
+          <t>15.696528147204974</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10.215898978254648</t>
+          <t>14.482982239130441</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>10.12867936178882</t>
+          <t>14.230352335714288</t>
         </is>
       </c>
     </row>
@@ -940,67 +940,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15.940263692307692</t>
+          <t>21.74508669230769</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17.449211384615385</t>
+          <t>23.29315776923077</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.551529</t>
+          <t>25.355665153846154</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.050705692307687</t>
+          <t>27.56984630769231</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21.584497076923075</t>
+          <t>26.73775153846154</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22.706415230769228</t>
+          <t>27.677091230769232</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.923415153846154</t>
+          <t>27.93255261538461</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23.801148461538464</t>
+          <t>28.955023076923077</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24.305377999999997</t>
+          <t>29.453589769230767</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21.583263076923075</t>
+          <t>26.779480153846155</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17.75458846153846</t>
+          <t>23.12406776923077</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16.320266384615387</t>
+          <t>21.86997215384615</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>16.28334161538461</t>
+          <t>21.863099846153847</t>
         </is>
       </c>
     </row>
@@ -1012,67 +1012,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9.968103653631283</t>
+          <t>14.041831429608939</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.584091097765366</t>
+          <t>13.836295971508385</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.5389373698324</t>
+          <t>13.833538505586597</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.032971059776537</t>
+          <t>13.119675040782123</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.973239177653629</t>
+          <t>11.836080307821229</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.455037865363128</t>
+          <t>10.379312056983244</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.678817392960891</t>
+          <t>9.874900105586589</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.372823715927373</t>
+          <t>9.71441364916201</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.676151607206703</t>
+          <t>9.999332650837987</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.363353470726256</t>
+          <t>10.524127715083807</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8.455583816759775</t>
+          <t>12.299901369832407</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9.986755091620115</t>
+          <t>13.728800704469267</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10.2447861603352</t>
+          <t>14.050751660893859</t>
         </is>
       </c>
     </row>
@@ -1084,67 +1084,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.1845639</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.492702699999995</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.6755718</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.550257699999996</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.397688</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.368952</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.4923511</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.576112900000005</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.636922500000004</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.494013099999997</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.487674</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.950660299999992</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.669144100000004</t>
         </is>
       </c>
     </row>
@@ -1156,67 +1156,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.114432303448275</t>
+          <t>7.439122474137933</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.583845041379309</t>
+          <t>5.925516857758617</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.134383263793104</t>
+          <t>7.304995738793107</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.282911457758621</t>
+          <t>6.833274137068965</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.997447206034485</t>
+          <t>6.311374710344829</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.2660160775862055</t>
+          <t>5.061552834482758</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.9739935370689645</t>
+          <t>5.5815839077586205</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.866762083620691</t>
+          <t>7.507162906896554</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.238507584482758</t>
+          <t>6.3872184439655175</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6.296986585344828</t>
+          <t>7.202213648275861</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.930457027586206</t>
+          <t>7.838689079310345</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.909644892241381</t>
+          <t>7.242204544827587</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5.745404965517241</t>
+          <t>6.671534972413792</t>
         </is>
       </c>
     </row>
@@ -1228,67 +1228,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.6800001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.1052232</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.4582885</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.866903</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>28.566786200000003</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.047423100000003</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.392738200000004</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.6760375</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.0531101</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.8341959</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.4365302</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.5669098</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.8188508</t>
         </is>
       </c>
     </row>
@@ -1300,67 +1300,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-7.4677368991628805</t>
+          <t>-7.099931381896363</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.6785912874365025</t>
+          <t>0.7952930877287596</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.605136443054577</t>
+          <t>-2.4449291191940823</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.123428655637806</t>
+          <t>-5.280874563711453</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-8.521170342255115</t>
+          <t>-5.5313573801930564</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-6.58013608906605</t>
+          <t>-3.5851139612306424</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-4.826825349466917</t>
+          <t>-1.8375369062498401</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-4.022593329654327</t>
+          <t>-1.0205028441219148</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-3.9105401288328014</t>
+          <t>-0.8821846040805804</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-5.001611254328017</t>
+          <t>-1.972510989411046</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-7.606528764555823</t>
+          <t>-4.619708066830013</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-8.009494395558082</t>
+          <t>-6.326988770597945</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-7.903003955546688</t>
+          <t>-6.6538813368858705</t>
         </is>
       </c>
     </row>
@@ -1372,67 +1372,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.4169858517391303</t>
+          <t>5.380985221739131</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.7460909391304344</t>
+          <t>7.845763360869566</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.963331091304347</t>
+          <t>8.483168365217391</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.201795443478261</t>
+          <t>7.18975436521739</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.5731741391304346</t>
+          <t>6.585454730434782</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.1009714826086965</t>
+          <t>8.050135682608696</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.613946517391304</t>
+          <t>9.583516413043476</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6.3814316</t>
+          <t>10.411137086956522</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.788991465217391</t>
+          <t>10.854122260869563</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6.247496704347827</t>
+          <t>10.275219043478259</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3.912422491304348</t>
+          <t>7.853136704347826</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2.9985907695652174</t>
+          <t>6.6430311565217375</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3.191127160869565</t>
+          <t>6.2816272652173915</t>
         </is>
       </c>
     </row>
@@ -1444,67 +1444,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43.29052544692738</t>
+          <t>35.13741330726258</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>43.368872508379894</t>
+          <t>35.0216509273743</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.28483963128491</t>
+          <t>35.29632643016759</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>42.31736312290501</t>
+          <t>34.76411354189946</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40.84554545810055</t>
+          <t>33.02915057541899</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>39.37175949720671</t>
+          <t>30.94162959776538</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>39.21205035195529</t>
+          <t>30.05487332960894</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>39.05087722905031</t>
+          <t>29.838050731843584</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>39.14568701117318</t>
+          <t>30.247246905027936</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>39.836188687150866</t>
+          <t>31.329367653631277</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>41.46595205027932</t>
+          <t>33.46399722905026</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>42.64195079329608</t>
+          <t>34.973028877094976</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>43.14327007821231</t>
+          <t>35.35538993854748</t>
         </is>
       </c>
     </row>
@@ -1516,67 +1516,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.512807615384613</t>
+          <t>21.29133407692308</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16.997013307692303</t>
+          <t>22.813819000000002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19.142042307692307</t>
+          <t>24.92506176923077</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.68217576923077</t>
+          <t>27.187410999999997</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21.283804692307697</t>
+          <t>26.426736846153844</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22.475765230769227</t>
+          <t>27.439643384615383</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22.724624769230772</t>
+          <t>27.72861984615384</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23.460386153846155</t>
+          <t>28.606409692307693</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23.981922153846156</t>
+          <t>29.12645053846154</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21.290569307692312</t>
+          <t>26.483265076923082</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>17.409058076923078</t>
+          <t>22.768924692307696</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15.904253923076924</t>
+          <t>21.438414769230768</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>15.858680615384616</t>
+          <t>21.41724623076923</t>
         </is>
       </c>
     </row>
@@ -1588,67 +1588,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.3043995</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.724829900000003</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.0858191</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>30.499706000000003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.173742599999997</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>25.617792399999995</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.9541557</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.249816700000004</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.6350606</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.4263173</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.0451013</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.1915969</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.4495921</t>
         </is>
       </c>
     </row>
@@ -1660,67 +1660,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8.4156167</t>
+          <t>12.989551646153846</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.360826692307693</t>
+          <t>14.97230376923077</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.421572223076923</t>
+          <t>17.167943</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.503866230769232</t>
+          <t>19.247169692307693</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14.397113461538462</t>
+          <t>18.90547584615385</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16.023699307692308</t>
+          <t>20.40545584615385</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16.77311376923077</t>
+          <t>21.19848769230769</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16.420646538461536</t>
+          <t>20.983877615384618</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16.507963692307694</t>
+          <t>21.14077076923077</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14.600168076923076</t>
+          <t>19.257440769230765</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10.787736969230771</t>
+          <t>15.497614923076922</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8.789171523076922</t>
+          <t>13.510042461538463</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>8.752584330769231</t>
+          <t>13.275739676923079</t>
         </is>
       </c>
     </row>
@@ -1732,67 +1732,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18.897732384615384</t>
+          <t>24.29889553846154</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.267175461538457</t>
+          <t>23.869132384615384</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.15946707692308</t>
+          <t>23.965122076923077</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17.09385</t>
+          <t>23.054052230769233</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16.180383846153845</t>
+          <t>21.97856861538461</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17.327682307692307</t>
+          <t>22.867949461538462</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18.572608692307696</t>
+          <t>24.057078846153843</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21.453386230769233</t>
+          <t>26.928747153846164</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>23.639297307692306</t>
+          <t>28.96066438461539</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23.65176307692307</t>
+          <t>28.756232461538463</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>20.93318246153846</t>
+          <t>25.96882653846154</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>21.308247769230768</t>
+          <t>26.344279307692304</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>20.89845076923077</t>
+          <t>25.966566461538466</t>
         </is>
       </c>
     </row>
@@ -1804,67 +1804,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15.966810172413796</t>
+          <t>26.40779324137931</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13.755882724137928</t>
+          <t>25.094518068965513</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13.55060475862069</t>
+          <t>25.028448931034486</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13.94959534482759</t>
+          <t>24.643305862068964</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13.489675389655172</t>
+          <t>23.39005051724137</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.2501733862069</t>
+          <t>21.373331137931032</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.827996517241377</t>
+          <t>20.565115620689653</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10.495390996551727</t>
+          <t>21.395423551724143</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13.179424068965515</t>
+          <t>23.523732586206897</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18.2467215862069</t>
+          <t>27.28083879310345</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>24.72546551724137</t>
+          <t>32.1799915862069</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23.005965413793106</t>
+          <t>31.132258758620686</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>21.170435</t>
+          <t>29.95290006896552</t>
         </is>
       </c>
     </row>
@@ -1876,67 +1876,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13.840553990322581</t>
+          <t>17.927916177419355</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12.29031004516129</t>
+          <t>16.619749677419357</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.073704451612903</t>
+          <t>15.702437674193549</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.383098043870968</t>
+          <t>13.308227635483872</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.975079434387096</t>
+          <t>11.852525635483872</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.460110017419355</t>
+          <t>13.168864887096772</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10.283847619354837</t>
+          <t>14.981919912903225</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15.406681600000004</t>
+          <t>20.015285225806455</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>19.773889967741933</t>
+          <t>24.163231483870966</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22.291904838709677</t>
+          <t>26.39954316129032</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>19.94724758064516</t>
+          <t>24.00417970967742</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>21.147270258064523</t>
+          <t>25.036073290322584</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>19.363413032258062</t>
+          <t>23.159003516129033</t>
         </is>
       </c>
     </row>
@@ -1948,67 +1948,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11.588064157894737</t>
+          <t>11.936145684210524</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.928640910526315</t>
+          <t>10.293862494736842</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.623993684210525</t>
+          <t>11.834881526315787</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11.77052263157895</t>
+          <t>11.31734852631579</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11.634033368421052</t>
+          <t>10.899601689473682</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11.199974410526313</t>
+          <t>9.89675987368421</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.600507878947369</t>
+          <t>10.24951369473684</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.279491736842104</t>
+          <t>11.967085263157898</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.419135047368423</t>
+          <t>10.537357721052633</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10.349356710526317</t>
+          <t>11.320916210526317</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.159782052631577</t>
+          <t>12.135428789473684</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11.569459736842106</t>
+          <t>11.970860368421054</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10.390523126315788</t>
+          <t>11.384478842105263</t>
         </is>
       </c>
     </row>
@@ -2020,67 +2020,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12.961322385474864</t>
+          <t>17.23501981564246</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12.569318044134079</t>
+          <t>17.02872865363128</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.542590494413416</t>
+          <t>17.045721983240227</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12.050485624022347</t>
+          <t>16.33525496648045</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.965748372625697</t>
+          <t>15.015915877094967</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9.368712872625697</t>
+          <t>13.48302204413408</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.553897698882686</t>
+          <t>12.95003748156425</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.229463641899441</t>
+          <t>12.776166386592184</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>8.54310686480447</t>
+          <t>13.070546943016756</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9.28461858044693</t>
+          <t>13.642725512290504</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11.45599333351955</t>
+          <t>15.485865798882681</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13.02593062402235</t>
+          <t>16.95022376536313</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.279873284916196</t>
+          <t>17.272821195530728</t>
         </is>
       </c>
     </row>
@@ -2092,67 +2092,67 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.989342245161292</t>
+          <t>12.16308417096774</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12.826089748709679</t>
+          <t>17.085814696774193</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16.378449277419357</t>
+          <t>20.662421522580644</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>19.692047219354837</t>
+          <t>23.863382994193547</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16.85756012580645</t>
+          <t>20.940116203225802</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17.455292722580648</t>
+          <t>21.44753136129032</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15.647876519354838</t>
+          <t>19.745187098709682</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.680329490322583</t>
+          <t>18.967383184838713</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14.608326603225805</t>
+          <t>18.912285059032257</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.912057825806452</t>
+          <t>16.27669716935484</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8.209455058064515</t>
+          <t>12.685826319354836</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7.0873185693548395</t>
+          <t>11.46240830967742</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>7.310436335483871</t>
+          <t>11.504427293548392</t>
         </is>
       </c>
     </row>
@@ -2164,67 +2164,67 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15.128876850000001</t>
+          <t>22.682616725</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14.702457275</t>
+          <t>22.598145025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15.654541400000005</t>
+          <t>23.352107825</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17.300390825</t>
+          <t>23.991826524999993</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>16.810406199999996</t>
+          <t>22.8884939</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13.520970849999998</t>
+          <t>20.183768275</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11.479827425000002</t>
+          <t>18.890277449999996</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10.719533092499997</t>
+          <t>18.48894275</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11.526007674999999</t>
+          <t>19.140077850000004</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13.466783525</t>
+          <t>20.490003949999995</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>16.494123875000007</t>
+          <t>22.743069725</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>17.043311875000004</t>
+          <t>23.499428199999997</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16.730705475</t>
+          <t>23.464639825</t>
         </is>
       </c>
     </row>
@@ -2236,67 +2236,67 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8.634408053846151</t>
+          <t>13.312231861538462</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10.521287869230772</t>
+          <t>15.230103769230768</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12.65806296923077</t>
+          <t>17.493681615384613</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14.828974692307696</t>
+          <t>19.647023846153846</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14.761723923076925</t>
+          <t>19.334434692307692</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16.42875923076923</t>
+          <t>20.871537000000004</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17.16699092307692</t>
+          <t>21.653117923076927</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16.833625153846153</t>
+          <t>21.460382461538458</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16.93412315384615</t>
+          <t>21.629721615384618</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14.959220076923076</t>
+          <t>19.677242</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11.062980430769231</t>
+          <t>15.836206692307693</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9.023365615384616</t>
+          <t>13.822684876923079</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.979512492307691</t>
+          <t>13.593200569230769</t>
         </is>
       </c>
     </row>
@@ -2308,67 +2308,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22.21668284210526</t>
+          <t>27.338461526315786</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24.019963736842104</t>
+          <t>29.215797210526322</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24.41997684210526</t>
+          <t>29.634466263157904</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24.138002473684207</t>
+          <t>29.272639842105264</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>22.822218684210526</t>
+          <t>27.709863</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22.85230852631579</t>
+          <t>27.54236031578948</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23.05356736842106</t>
+          <t>27.738613473684214</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>27.470951894736842</t>
+          <t>32.16274705263157</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>28.153963210526314</t>
+          <t>32.70958447368421</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>25.276975157894743</t>
+          <t>29.823373157894743</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>22.587866315789473</t>
+          <t>27.244673473684212</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>22.65378942105263</t>
+          <t>27.42327742105263</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>22.75621226315789</t>
+          <t>27.588194368421053</t>
         </is>
       </c>
     </row>
@@ -2380,67 +2380,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14.077432172413792</t>
+          <t>24.966047517241382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15.748354862068961</t>
+          <t>26.634798379310343</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19.674534655172412</t>
+          <t>29.71031086206897</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25.248543655172412</t>
+          <t>33.2072483448276</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24.224469344827593</t>
+          <t>31.365098931034474</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16.520798137931035</t>
+          <t>25.090741034482757</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11.902177955172416</t>
+          <t>21.854439034482763</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.690511289655173</t>
+          <t>20.417424793103454</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10.006850493103451</t>
+          <t>20.707819103448273</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11.076797417241377</t>
+          <t>21.42860293103448</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>13.179948827586205</t>
+          <t>23.042738862068962</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14.393193172413792</t>
+          <t>24.38757903448276</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>14.51959775862069</t>
+          <t>24.75445217241379</t>
         </is>
       </c>
     </row>
@@ -2452,67 +2452,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8.982254079661015</t>
+          <t>13.46159375423729</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13.793125704915253</t>
+          <t>18.26346724050848</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18.43250637457627</t>
+          <t>22.862812606779663</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22.658027505084746</t>
+          <t>26.902275189830515</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19.331019781355934</t>
+          <t>23.46922114067797</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19.725459205084743</t>
+          <t>23.766773044067794</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>17.37062539661017</t>
+          <t>21.52702871525424</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15.964582194915254</t>
+          <t>20.33007029322034</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15.862202172881352</t>
+          <t>20.246339288135594</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12.99823744576271</t>
+          <t>17.448373105084745</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9.120168561016952</t>
+          <t>13.693691281355932</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>7.90002765864407</t>
+          <t>12.47861043898305</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>8.138798786271188</t>
+          <t>12.571951511864405</t>
         </is>
       </c>
     </row>
@@ -2524,67 +2524,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14.8695720558952</t>
+          <t>21.845786471615714</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14.856700906986891</t>
+          <t>22.049504803493456</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15.430344441484717</t>
+          <t>22.764942196506553</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16.217264023580785</t>
+          <t>23.307759930131006</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16.04336384323144</t>
+          <t>22.644142982532756</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15.360606462008732</t>
+          <t>21.862565882096074</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15.192632999999992</t>
+          <t>21.88103341921397</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15.54929731004366</t>
+          <t>22.442376235807863</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>16.4781656069869</t>
+          <t>23.354726388646284</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16.79023515720524</t>
+          <t>23.48128223144105</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>16.351284777292587</t>
+          <t>22.843184331877726</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16.09267303799128</t>
+          <t>22.62690856331878</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>15.94952985938865</t>
+          <t>22.533411842794766</t>
         </is>
       </c>
     </row>
@@ -2596,67 +2596,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19.301160230769227</t>
+          <t>24.72176207692307</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18.720522538461537</t>
+          <t>24.343443923076922</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18.61802169230769</t>
+          <t>24.44086384615384</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17.555390769230772</t>
+          <t>23.52841253846154</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16.608380307692304</t>
+          <t>22.415991846153847</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17.701635307692307</t>
+          <t>23.246940384615378</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>18.913257769230768</t>
+          <t>24.399951538461536</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>21.91916907692308</t>
+          <t>27.398694538461534</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>24.051276384615388</t>
+          <t>29.371331999999995</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23.986348923076925</t>
+          <t>29.088245153846156</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>21.259534923076924</t>
+          <t>26.298457692307693</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21.656685615384614</t>
+          <t>26.700765846153846</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>21.262183153846156</t>
+          <t>26.34418953846154</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2668,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.383564272173913</t>
+          <t>5.332463143478262</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.810703334782609</t>
+          <t>7.9054497652173925</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.008102152173913</t>
+          <t>8.5233176</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.294813369565217</t>
+          <t>7.274227852173914</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.671697617391304</t>
+          <t>6.672910382608694</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4.192989252173913</t>
+          <t>8.13250123043478</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.683340778260869</t>
+          <t>9.644093413043478</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.410960378260869</t>
+          <t>10.432249417391304</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6.786529773913044</t>
+          <t>10.843482073913044</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6.1950869347826085</t>
+          <t>10.216166343478262</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>3.8380116782608695</t>
+          <t>7.774908721739131</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.9156264260869564</t>
+          <t>6.548539508695651</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3.1163130347826087</t>
+          <t>6.196218191304347</t>
         </is>
       </c>
     </row>
@@ -2740,67 +2740,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10.518463894736842</t>
+          <t>10.419012231578947</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11.795377631578948</t>
+          <t>11.658274736842106</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.676275236842104</t>
+          <t>10.54891224736842</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11.886361526315788</t>
+          <t>11.775981210526316</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11.213985747368419</t>
+          <t>11.517781789473686</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10.398100252631579</t>
+          <t>10.247799968421054</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11.587268368421054</t>
+          <t>11.464300557894738</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>9.706985421052636</t>
+          <t>9.822662036842106</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11.139189931578949</t>
+          <t>10.892180263157893</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10.579312868421054</t>
+          <t>11.259527631578946</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9.713309163157895</t>
+          <t>10.142974447368418</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10.214025294736842</t>
+          <t>9.861662136842105</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.028325268421051</t>
+          <t>10.643734094736839</t>
         </is>
       </c>
     </row>
@@ -2812,67 +2812,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8.90495081090684</t>
+          <t>13.072625981614902</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10.281082893913034</t>
+          <t>14.550985252173914</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.949679927267086</t>
+          <t>15.40227185465838</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.714759635217389</t>
+          <t>15.333150977018638</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11.882869450739134</t>
+          <t>16.340250239130437</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17.874480329813668</t>
+          <t>22.004905366459635</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>20.921223782608685</t>
+          <t>24.94932706832299</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>23.1064536832298</t>
+          <t>27.151248527950308</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>23.09964279503106</t>
+          <t>27.138828366459627</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>17.89435588136645</t>
+          <t>22.00728565838508</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11.11779251485093</t>
+          <t>15.392262717391306</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9.90836562459006</t>
+          <t>14.158884277204972</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>9.822826249987576</t>
+          <t>13.90616591403727</t>
         </is>
       </c>
     </row>
@@ -2884,67 +2884,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46.119942854748594</t>
+          <t>37.455836988826825</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>46.196298916201116</t>
+          <t>37.33118805586591</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>46.10455764245811</t>
+          <t>37.616670893854746</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>45.12062882122905</t>
+          <t>37.07775386592177</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>43.68851661452514</t>
+          <t>35.366613245810065</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>42.23757939106144</t>
+          <t>33.26753388268156</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>42.0672292849162</t>
+          <t>32.33513427374302</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>41.890780452513965</t>
+          <t>32.105176541899446</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>41.9844400670391</t>
+          <t>32.529631586592174</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>42.66808818994412</t>
+          <t>33.62251773184359</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>44.254633597765356</t>
+          <t>35.74291669832401</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>45.44668235754192</t>
+          <t>37.292713687150844</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>45.961698117318456</t>
+          <t>37.684999955307255</t>
         </is>
       </c>
     </row>
@@ -2956,67 +2956,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5.561177430172412</t>
+          <t>5.474342803448278</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.620533610344828</t>
+          <t>6.496016989655173</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.478049943965516</t>
+          <t>5.36074482413793</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.078749531896551</t>
+          <t>6.977919537068967</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6.604444868965516</t>
+          <t>6.881693914655172</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5.8511143905172425</t>
+          <t>5.714290399137932</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.614983507758619</t>
+          <t>6.506868290517244</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.46791882413793</t>
+          <t>4.566518561206896</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5.597064991379314</t>
+          <t>5.376769924137931</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5.4508957913793115</t>
+          <t>6.08512076810345</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>4.839086821551726</t>
+          <t>5.219679546551724</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5.2784164568965535</t>
+          <t>4.955767044827589</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5.05037033362069</t>
+          <t>5.613346491379309</t>
         </is>
       </c>
     </row>
@@ -3028,67 +3028,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15.839863563999998</t>
+          <t>23.065932863999993</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16.502525419199998</t>
+          <t>23.884541023999986</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17.106353048799992</t>
+          <t>24.504277608000002</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17.819671771200003</t>
+          <t>24.79048499199999</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>17.022575607200004</t>
+          <t>23.561736112000002</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15.801543465599996</t>
+          <t>22.362801847999993</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15.2858002344</t>
+          <t>22.084358839999993</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16.115629108000004</t>
+          <t>22.928548728000003</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>16.95754227439999</t>
+          <t>23.652724032000005</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>17.0705801328</t>
+          <t>23.68847085599999</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>17.27330489199999</t>
+          <t>23.79870844000001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17.346323227200006</t>
+          <t>24.014470552</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>17.140351338400002</t>
+          <t>23.887891063999994</t>
         </is>
       </c>
     </row>
@@ -3100,67 +3100,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10.502535584615385</t>
+          <t>14.921060307692308</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9.951529861538463</t>
+          <t>14.532317769230769</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9.637745130769233</t>
+          <t>14.537165615384616</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.887784999999999</t>
+          <t>13.131100769230768</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7.103630138461539</t>
+          <t>12.292679492307693</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8.893905192307693</t>
+          <t>13.903572230769232</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10.686337430769232</t>
+          <t>15.668987692307693</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12.476891769230768</t>
+          <t>17.48858930769231</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>14.445771076923078</t>
+          <t>19.406246538461538</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15.419711307692312</t>
+          <t>20.16576223076923</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>13.009923076923076</t>
+          <t>17.60286376923077</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13.098255230769233</t>
+          <t>17.55994546153846</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12.701704692307695</t>
+          <t>16.974139615384615</t>
         </is>
       </c>
     </row>
@@ -3172,67 +3172,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17.60757648484849</t>
+          <t>32.58107184848484</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17.02156303030303</t>
+          <t>32.50107972727272</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18.308070303030306</t>
+          <t>33.300865</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20.885190121212123</t>
+          <t>33.94256978787879</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>20.64705</t>
+          <t>32.58894484848485</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16.658837272727276</t>
+          <t>29.60860615151515</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14.150637060606057</t>
+          <t>28.239573848484856</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13.43046354545454</t>
+          <t>28.015948363636365</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>14.461783181818182</t>
+          <t>28.698344272727276</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>16.57490409090909</t>
+          <t>29.98055121212121</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>19.881791090909086</t>
+          <t>32.25699648484848</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>20.192470636363637</t>
+          <t>33.20470281818182</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>19.66654957575758</t>
+          <t>33.28357154545454</t>
         </is>
       </c>
     </row>
@@ -3244,67 +3244,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20.062954309090912</t>
+          <t>30.440523872727272</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19.442669690909085</t>
+          <t>30.25195616363636</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20.41850883636364</t>
+          <t>30.982754109090916</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>22.4177244</t>
+          <t>31.622375290909083</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>22.268596709090918</t>
+          <t>30.55631294545454</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18.857677854545457</t>
+          <t>27.714067290909092</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16.434795072727272</t>
+          <t>26.219928581818177</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15.620943527272726</t>
+          <t>25.837239072727264</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>16.379389363636367</t>
+          <t>26.422581690909084</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>18.781555127272735</t>
+          <t>28.08966454545455</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>21.716397709090906</t>
+          <t>30.306183890909086</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22.215175709090904</t>
+          <t>31.18627376363636</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>21.8197372</t>
+          <t>31.201917200000004</t>
         </is>
       </c>
     </row>
@@ -3316,67 +3316,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13.973801620689654</t>
+          <t>25.067894931034484</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15.806410413793103</t>
+          <t>26.895780551724144</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19.978455551724135</t>
+          <t>30.19518562068966</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25.885602</t>
+          <t>33.98009651724138</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>24.73367086206897</t>
+          <t>32.00174268965518</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16.561806379310344</t>
+          <t>25.301900034482756</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11.778648072413793</t>
+          <t>21.904392551724136</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>9.516938124137933</t>
+          <t>20.430739068965522</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9.830268396551729</t>
+          <t>20.719976206896558</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>10.882788786206897</t>
+          <t>21.430777275862077</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>12.980039379310346</t>
+          <t>23.0485865862069</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14.235921965517242</t>
+          <t>24.434812931034486</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>14.38158820689655</t>
+          <t>24.822035689655173</t>
         </is>
       </c>
     </row>
@@ -3388,67 +3388,67 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.825573400000003</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.137681299999997</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.3314168</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.210900999999996</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.0375634</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.976228000000003</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.081631999999995</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>23.1683553</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.2281051</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.0852957</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.096020899999996</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.57816379999999</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.304380300000002</t>
         </is>
       </c>
     </row>
@@ -3460,67 +3460,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15.808882413793107</t>
+          <t>25.9317655862069</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13.527773137931034</t>
+          <t>24.530227862068966</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13.278672758620687</t>
+          <t>24.421156103448272</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13.61805927586207</t>
+          <t>23.99684803448276</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13.142764320689652</t>
+          <t>22.74323765517242</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10.929112796551726</t>
+          <t>20.74677431034483</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9.531990696551723</t>
+          <t>19.955460965517243</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10.291728289655174</t>
+          <t>20.884718827586205</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>13.09304448275862</t>
+          <t>23.15013810344827</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>18.426885896551724</t>
+          <t>27.237338344827588</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>25.164726827586204</t>
+          <t>32.420826724137925</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23.244881310344827</t>
+          <t>31.130521517241387</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>21.289648379310346</t>
+          <t>29.804828413793107</t>
         </is>
       </c>
     </row>
@@ -3532,67 +3532,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.650185818181814</t>
+          <t>32.60657587878788</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16.98619906060606</t>
+          <t>32.47062030303031</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>18.186146060606063</t>
+          <t>33.20866521212122</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20.64328278787879</t>
+          <t>33.767624</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>20.416279242424242</t>
+          <t>32.42901703030303</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16.55276266666667</t>
+          <t>29.538335484848485</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14.10762809090909</t>
+          <t>28.210251121212114</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13.438521848484847</t>
+          <t>28.022899757575757</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>14.510906454545456</t>
+          <t>28.73414278787879</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16.711473515151514</t>
+          <t>30.07588406060606</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>20.119910909090912</t>
+          <t>32.423744606060595</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>20.373762909090907</t>
+          <t>33.32981524242424</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>19.80618027272728</t>
+          <t>33.37870142424243</t>
         </is>
       </c>
     </row>
@@ -3604,67 +3604,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20.129019290909092</t>
+          <t>30.633718981818177</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19.489658872727272</t>
+          <t>30.4399492</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20.460730672727273</t>
+          <t>31.171196672727277</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22.474872763636366</t>
+          <t>31.8179012</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>22.342900399999998</t>
+          <t>30.75554758181818</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18.932364763636368</t>
+          <t>27.90818245454545</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16.496967654545454</t>
+          <t>26.406082854545453</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15.673586854545459</t>
+          <t>26.018266836363637</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>16.43475087272727</t>
+          <t>26.602428672727278</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18.848420036363635</t>
+          <t>28.261826836363632</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>21.79670063636364</t>
+          <t>30.479836836363646</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>22.294695309090915</t>
+          <t>31.367709799999986</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>21.8945625090909</t>
+          <t>31.387165490909098</t>
         </is>
       </c>
     </row>
@@ -3676,67 +3676,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22.01687706686481</t>
+          <t>25.05166697424471</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25.954330345220402</t>
+          <t>28.965877732540847</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>24.888279786528</t>
+          <t>27.95415447052992</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>23.174538748390326</t>
+          <t>26.28014757602773</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>21.04345211887072</t>
+          <t>24.056729530460586</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20.744720420406157</t>
+          <t>23.64588243744431</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>20.97110566280337</t>
+          <t>23.857988915304585</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>30.81098884249628</t>
+          <t>33.62458660475485</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>27.353022882119827</t>
+          <t>30.12046261119359</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22.96960795195643</t>
+          <t>25.727586278850936</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>20.426678851956403</t>
+          <t>23.23606470579498</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21.52124319499755</t>
+          <t>24.365023854878697</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>21.96320857241206</t>
+          <t>24.82818178900442</t>
         </is>
       </c>
     </row>
@@ -3748,67 +3748,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22.215173608695654</t>
+          <t>27.312561173913036</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23.969523608695653</t>
+          <t>29.142854913043482</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>24.360960304347824</t>
+          <t>29.55614430434782</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>24.01230126086957</t>
+          <t>29.13570695652174</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>22.686367739130432</t>
+          <t>27.56826743478261</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22.72757939130435</t>
+          <t>27.409271999999998</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.955581000000002</t>
+          <t>27.629706608695653</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>27.4118457826087</t>
+          <t>32.09063513043479</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>28.142488347826088</t>
+          <t>32.682540260869565</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>25.282194999999998</t>
+          <t>29.80905386956522</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>22.59616078260869</t>
+          <t>27.22867904347825</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22.68174473913043</t>
+          <t>27.424910304347815</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>22.77864652173913</t>
+          <t>27.584645347826086</t>
         </is>
       </c>
     </row>
@@ -3820,67 +3820,67 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15.883137633734933</t>
+          <t>22.83724921686747</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16.71949979759036</t>
+          <t>23.830504554216873</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17.227134657831325</t>
+          <t>24.371601819277114</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17.790866066265064</t>
+          <t>24.565079674698797</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16.97071775542168</t>
+          <t>23.34351562650602</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15.94987570240964</t>
+          <t>22.327124024096392</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15.548607322891572</t>
+          <t>22.13915937349398</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16.63043471445783</t>
+          <t>23.230809734939758</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>17.406837260240955</t>
+          <t>23.89103401204819</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17.330303638554216</t>
+          <t>23.750631542168673</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>17.235937522891557</t>
+          <t>23.582881361445775</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>17.298695584337356</t>
+          <t>23.759587554216864</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>17.119717610843377</t>
+          <t>23.63520528915663</t>
         </is>
       </c>
     </row>
